--- a/Git Analisis/Reportes de atencion/2023/Mayo/REPORTE DE ATENCIONES_MAYO_2023_DAMVV-1.xlsx
+++ b/Git Analisis/Reportes de atencion/2023/Mayo/REPORTE DE ATENCIONES_MAYO_2023_DAMVV-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario1\Documents\Cesar\2023\Reportes de Atencion\Mayo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://correobuap-my.sharepoint.com/personal/hessael_lopez_alumno_buap_mx/Documents/Análisis de Datos Primavera 2023/projects/SIS/SIS-Geo/Git Analisis/Reportes de atencion/2023/Mayo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2C85DC-6A3D-4D7D-9E84-153AB15EB6FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{DE2C85DC-6A3D-4D7D-9E84-153AB15EB6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92037C0F-2465-4BA4-82CF-13E2A7046484}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15060" windowHeight="9465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL CON SEMANALES" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -232,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -277,6 +288,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,41 +611,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XP807"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A778" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:D807"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="4" max="4" width="72.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="14" customWidth="1"/>
     <col min="6" max="6" width="18" style="14" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="14" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="14" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="14" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" style="14" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" style="14" customWidth="1"/>
-    <col min="15" max="15" width="22.85546875" style="14" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="14"/>
-    <col min="17" max="17" width="19.42578125" style="14" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="14"/>
-    <col min="19" max="19" width="21.7109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="17.1796875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" style="14" customWidth="1"/>
+    <col min="11" max="12" width="14.7265625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="18.453125" style="14" customWidth="1"/>
+    <col min="14" max="14" width="17.7265625" style="14" customWidth="1"/>
+    <col min="15" max="15" width="22.81640625" style="14" customWidth="1"/>
+    <col min="16" max="16" width="11.453125" style="14"/>
+    <col min="17" max="17" width="19.453125" style="14" customWidth="1"/>
+    <col min="18" max="18" width="11.453125" style="14"/>
+    <col min="19" max="19" width="21.7265625" style="14" customWidth="1"/>
     <col min="20" max="20" width="20" style="14" customWidth="1"/>
-    <col min="21" max="21" width="16.140625" style="14" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" style="14" customWidth="1"/>
-    <col min="23" max="23" width="20.5703125" style="14" customWidth="1"/>
-    <col min="24" max="24" width="17.28515625" style="14" customWidth="1"/>
+    <col min="21" max="21" width="16.1796875" style="14" customWidth="1"/>
+    <col min="22" max="22" width="16.7265625" style="14" customWidth="1"/>
+    <col min="23" max="23" width="20.54296875" style="14" customWidth="1"/>
+    <col min="24" max="24" width="17.26953125" style="14" customWidth="1"/>
     <col min="25" max="25" width="22" style="14" customWidth="1"/>
-    <col min="26" max="26" width="23.140625" style="14" customWidth="1"/>
-    <col min="27" max="27" width="19.7109375" style="14" customWidth="1"/>
-    <col min="28" max="44" width="11.42578125" style="14"/>
+    <col min="26" max="26" width="23.1796875" style="14" customWidth="1"/>
+    <col min="27" max="27" width="19.7265625" style="14" customWidth="1"/>
+    <col min="28" max="44" width="11.453125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -666,7 +683,7 @@
       <c r="AA1" s="17"/>
       <c r="AB1" s="17"/>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>19</v>
       </c>
@@ -680,7 +697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>19</v>
       </c>
@@ -694,7 +711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>19</v>
       </c>
@@ -708,7 +725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>19</v>
       </c>
@@ -722,7 +739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>19</v>
       </c>
@@ -736,7 +753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>19</v>
       </c>
@@ -750,7 +767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>19</v>
       </c>
@@ -764,7 +781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -778,7 +795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>20</v>
       </c>
@@ -792,7 +809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>20</v>
       </c>
@@ -806,7 +823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>20</v>
       </c>
@@ -820,7 +837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -834,7 +851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>20</v>
       </c>
@@ -888,7 +905,7 @@
       <c r="AQ14" s="15"/>
       <c r="AR14" s="15"/>
     </row>
-    <row r="15" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>20</v>
       </c>
@@ -942,7 +959,7 @@
       <c r="AQ15" s="15"/>
       <c r="AR15" s="15"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>21</v>
       </c>
@@ -956,7 +973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:640" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:640" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>21</v>
       </c>
@@ -970,7 +987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:640" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:640" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>21</v>
       </c>
@@ -984,7 +1001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:640" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:640" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>21</v>
       </c>
@@ -998,7 +1015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:640" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:640" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -1012,7 +1029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:640" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:640" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -1026,7 +1043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:640" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:640" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1040,7 +1057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:640" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:640" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1054,7 +1071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:640" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:640" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1068,7 +1085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:640" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:640" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1082,7 +1099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:640" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:640" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1096,7 +1113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:640" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:640" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>22</v>
       </c>
@@ -1110,7 +1127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:640" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:640" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>22</v>
       </c>
@@ -1124,7 +1141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:640" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:640" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>22</v>
       </c>
@@ -1138,7 +1155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:640" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:640" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>23</v>
       </c>
@@ -1788,7 +1805,7 @@
       <c r="XO30" s="4"/>
       <c r="XP30" s="4"/>
     </row>
-    <row r="31" spans="1:640" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:640" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>23</v>
       </c>
@@ -2438,7 +2455,7 @@
       <c r="XO31" s="4"/>
       <c r="XP31" s="4"/>
     </row>
-    <row r="32" spans="1:640" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:640" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>23</v>
       </c>
@@ -3088,7 +3105,7 @@
       <c r="XO32" s="4"/>
       <c r="XP32" s="4"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>19</v>
       </c>
@@ -3102,7 +3119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>19</v>
       </c>
@@ -3116,7 +3133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>19</v>
       </c>
@@ -3130,7 +3147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>19</v>
       </c>
@@ -3144,7 +3161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>19</v>
       </c>
@@ -3158,7 +3175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>19</v>
       </c>
@@ -3172,7 +3189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>19</v>
       </c>
@@ -3186,7 +3203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>20</v>
       </c>
@@ -3200,7 +3217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>20</v>
       </c>
@@ -3214,7 +3231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>20</v>
       </c>
@@ -3228,7 +3245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>20</v>
       </c>
@@ -3242,7 +3259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>20</v>
       </c>
@@ -3256,7 +3273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
         <v>20</v>
       </c>
@@ -3270,7 +3287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>20</v>
       </c>
@@ -3284,7 +3301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>21</v>
       </c>
@@ -3298,7 +3315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>21</v>
       </c>
@@ -3312,7 +3329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>21</v>
       </c>
@@ -3326,7 +3343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>21</v>
       </c>
@@ -3340,7 +3357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>21</v>
       </c>
@@ -3354,7 +3371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>21</v>
       </c>
@@ -3368,7 +3385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>21</v>
       </c>
@@ -3382,7 +3399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>22</v>
       </c>
@@ -3396,7 +3413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>22</v>
       </c>
@@ -3410,7 +3427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>22</v>
       </c>
@@ -3424,7 +3441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>22</v>
       </c>
@@ -3438,7 +3455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>22</v>
       </c>
@@ -3452,7 +3469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>22</v>
       </c>
@@ -3466,7 +3483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>22</v>
       </c>
@@ -3480,7 +3497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>23</v>
       </c>
@@ -3494,7 +3511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>23</v>
       </c>
@@ -3508,7 +3525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>23</v>
       </c>
@@ -3522,7 +3539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>19</v>
       </c>
@@ -3536,7 +3553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>19</v>
       </c>
@@ -3550,7 +3567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>19</v>
       </c>
@@ -3564,7 +3581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>19</v>
       </c>
@@ -3578,7 +3595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>19</v>
       </c>
@@ -3592,7 +3609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>19</v>
       </c>
@@ -3606,7 +3623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>19</v>
       </c>
@@ -3620,7 +3637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>20</v>
       </c>
@@ -3634,7 +3651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>20</v>
       </c>
@@ -3648,7 +3665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>20</v>
       </c>
@@ -3662,7 +3679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>20</v>
       </c>
@@ -3676,7 +3693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>20</v>
       </c>
@@ -3690,7 +3707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="8">
         <v>20</v>
       </c>
@@ -3704,7 +3721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="8">
         <v>20</v>
       </c>
@@ -3718,7 +3735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>21</v>
       </c>
@@ -3732,7 +3749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>21</v>
       </c>
@@ -3746,7 +3763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>21</v>
       </c>
@@ -3760,7 +3777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>21</v>
       </c>
@@ -3774,7 +3791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>21</v>
       </c>
@@ -3788,7 +3805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>21</v>
       </c>
@@ -3802,7 +3819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>21</v>
       </c>
@@ -3816,7 +3833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>22</v>
       </c>
@@ -3830,7 +3847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>22</v>
       </c>
@@ -3844,7 +3861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>22</v>
       </c>
@@ -3858,7 +3875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>22</v>
       </c>
@@ -3872,7 +3889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>22</v>
       </c>
@@ -3886,7 +3903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>22</v>
       </c>
@@ -3900,7 +3917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>22</v>
       </c>
@@ -3914,7 +3931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>23</v>
       </c>
@@ -3928,7 +3945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>23</v>
       </c>
@@ -3942,7 +3959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>23</v>
       </c>
@@ -3956,7 +3973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>19</v>
       </c>
@@ -3970,7 +3987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>19</v>
       </c>
@@ -3984,7 +4001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>19</v>
       </c>
@@ -3998,7 +4015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>19</v>
       </c>
@@ -4012,7 +4029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>19</v>
       </c>
@@ -4026,7 +4043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>19</v>
       </c>
@@ -4040,7 +4057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>19</v>
       </c>
@@ -4054,7 +4071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>20</v>
       </c>
@@ -4068,7 +4085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>20</v>
       </c>
@@ -4082,7 +4099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>20</v>
       </c>
@@ -4096,7 +4113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>20</v>
       </c>
@@ -4110,7 +4127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>20</v>
       </c>
@@ -4124,7 +4141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="8">
         <v>20</v>
       </c>
@@ -4138,7 +4155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="8">
         <v>20</v>
       </c>
@@ -4152,7 +4169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>21</v>
       </c>
@@ -4166,7 +4183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>21</v>
       </c>
@@ -4180,7 +4197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>21</v>
       </c>
@@ -4194,7 +4211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>21</v>
       </c>
@@ -4208,7 +4225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>21</v>
       </c>
@@ -4222,7 +4239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>21</v>
       </c>
@@ -4236,7 +4253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>21</v>
       </c>
@@ -4250,7 +4267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>22</v>
       </c>
@@ -4264,7 +4281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>22</v>
       </c>
@@ -4278,7 +4295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>22</v>
       </c>
@@ -4292,7 +4309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>22</v>
       </c>
@@ -4306,7 +4323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>22</v>
       </c>
@@ -4320,7 +4337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>22</v>
       </c>
@@ -4334,7 +4351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>22</v>
       </c>
@@ -4348,7 +4365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>23</v>
       </c>
@@ -4362,7 +4379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>23</v>
       </c>
@@ -4376,7 +4393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>23</v>
       </c>
@@ -4390,7 +4407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>19</v>
       </c>
@@ -4404,7 +4421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>19</v>
       </c>
@@ -4418,7 +4435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>19</v>
       </c>
@@ -4432,7 +4449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>19</v>
       </c>
@@ -4446,7 +4463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>19</v>
       </c>
@@ -4460,7 +4477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>19</v>
       </c>
@@ -4474,7 +4491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>19</v>
       </c>
@@ -4488,7 +4505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>20</v>
       </c>
@@ -4502,7 +4519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>20</v>
       </c>
@@ -4516,7 +4533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>20</v>
       </c>
@@ -4530,7 +4547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>20</v>
       </c>
@@ -4544,7 +4561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>20</v>
       </c>
@@ -4558,7 +4575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="8">
         <v>20</v>
       </c>
@@ -4572,7 +4589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="8">
         <v>20</v>
       </c>
@@ -4586,7 +4603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>21</v>
       </c>
@@ -4600,7 +4617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>21</v>
       </c>
@@ -4614,7 +4631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>21</v>
       </c>
@@ -4628,7 +4645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>21</v>
       </c>
@@ -4642,7 +4659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>21</v>
       </c>
@@ -4656,7 +4673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>21</v>
       </c>
@@ -4670,7 +4687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>21</v>
       </c>
@@ -4684,7 +4701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>22</v>
       </c>
@@ -4698,7 +4715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>22</v>
       </c>
@@ -4712,7 +4729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>22</v>
       </c>
@@ -4726,7 +4743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>22</v>
       </c>
@@ -4740,7 +4757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>22</v>
       </c>
@@ -4754,7 +4771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>22</v>
       </c>
@@ -4768,7 +4785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>22</v>
       </c>
@@ -4782,7 +4799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>23</v>
       </c>
@@ -4796,7 +4813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>23</v>
       </c>
@@ -4810,7 +4827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>23</v>
       </c>
@@ -4824,7 +4841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>19</v>
       </c>
@@ -4838,7 +4855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>19</v>
       </c>
@@ -4852,7 +4869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>19</v>
       </c>
@@ -4866,7 +4883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>19</v>
       </c>
@@ -4880,7 +4897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>19</v>
       </c>
@@ -4894,7 +4911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>19</v>
       </c>
@@ -4908,7 +4925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>19</v>
       </c>
@@ -4922,7 +4939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>20</v>
       </c>
@@ -4936,7 +4953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>20</v>
       </c>
@@ -4950,7 +4967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>20</v>
       </c>
@@ -4964,7 +4981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>20</v>
       </c>
@@ -4978,7 +4995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>20</v>
       </c>
@@ -4992,7 +5009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="8">
         <v>20</v>
       </c>
@@ -5006,7 +5023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="8">
         <v>20</v>
       </c>
@@ -5020,7 +5037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>21</v>
       </c>
@@ -5034,7 +5051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>21</v>
       </c>
@@ -5048,7 +5065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>21</v>
       </c>
@@ -5062,7 +5079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>21</v>
       </c>
@@ -5076,7 +5093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>21</v>
       </c>
@@ -5090,7 +5107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>21</v>
       </c>
@@ -5104,7 +5121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>21</v>
       </c>
@@ -5118,7 +5135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>22</v>
       </c>
@@ -5132,7 +5149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>22</v>
       </c>
@@ -5146,7 +5163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>22</v>
       </c>
@@ -5160,7 +5177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>22</v>
       </c>
@@ -5174,7 +5191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>22</v>
       </c>
@@ -5188,7 +5205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>22</v>
       </c>
@@ -5202,7 +5219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>22</v>
       </c>
@@ -5216,7 +5233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>23</v>
       </c>
@@ -5230,7 +5247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>23</v>
       </c>
@@ -5244,7 +5261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>23</v>
       </c>
@@ -5258,7 +5275,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>19</v>
       </c>
@@ -5272,7 +5289,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>19</v>
       </c>
@@ -5286,7 +5303,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>19</v>
       </c>
@@ -5300,7 +5317,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>19</v>
       </c>
@@ -5314,7 +5331,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>19</v>
       </c>
@@ -5328,7 +5345,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>19</v>
       </c>
@@ -5342,7 +5359,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>19</v>
       </c>
@@ -5356,7 +5373,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>20</v>
       </c>
@@ -5370,7 +5387,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>20</v>
       </c>
@@ -5384,7 +5401,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>20</v>
       </c>
@@ -5398,7 +5415,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>20</v>
       </c>
@@ -5412,7 +5429,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>20</v>
       </c>
@@ -5426,7 +5443,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="8">
         <v>20</v>
       </c>
@@ -5440,7 +5457,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="8">
         <v>20</v>
       </c>
@@ -5454,7 +5471,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>21</v>
       </c>
@@ -5468,7 +5485,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>21</v>
       </c>
@@ -5482,7 +5499,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>21</v>
       </c>
@@ -5496,7 +5513,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>21</v>
       </c>
@@ -5510,7 +5527,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>21</v>
       </c>
@@ -5524,7 +5541,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>21</v>
       </c>
@@ -5538,7 +5555,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>21</v>
       </c>
@@ -5552,7 +5569,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>22</v>
       </c>
@@ -5566,7 +5583,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>22</v>
       </c>
@@ -5580,7 +5597,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>22</v>
       </c>
@@ -5594,7 +5611,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>22</v>
       </c>
@@ -5608,7 +5625,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>22</v>
       </c>
@@ -5622,7 +5639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>22</v>
       </c>
@@ -5636,7 +5653,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>22</v>
       </c>
@@ -5650,7 +5667,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>23</v>
       </c>
@@ -5664,7 +5681,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>23</v>
       </c>
@@ -5678,7 +5695,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>23</v>
       </c>
@@ -5692,7 +5709,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>19</v>
       </c>
@@ -5706,7 +5723,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>19</v>
       </c>
@@ -5720,7 +5737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>19</v>
       </c>
@@ -5734,7 +5751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>19</v>
       </c>
@@ -5748,7 +5765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>19</v>
       </c>
@@ -5762,7 +5779,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>19</v>
       </c>
@@ -5776,7 +5793,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>19</v>
       </c>
@@ -5790,7 +5807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>20</v>
       </c>
@@ -5804,7 +5821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>20</v>
       </c>
@@ -5818,7 +5835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>20</v>
       </c>
@@ -5832,7 +5849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>20</v>
       </c>
@@ -5846,7 +5863,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>20</v>
       </c>
@@ -5860,7 +5877,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" s="8">
         <v>20</v>
       </c>
@@ -5874,7 +5891,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" s="8">
         <v>20</v>
       </c>
@@ -5888,7 +5905,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>21</v>
       </c>
@@ -5902,7 +5919,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>21</v>
       </c>
@@ -5916,7 +5933,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>21</v>
       </c>
@@ -5930,7 +5947,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>21</v>
       </c>
@@ -5944,7 +5961,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>21</v>
       </c>
@@ -5958,7 +5975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>21</v>
       </c>
@@ -5972,7 +5989,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>21</v>
       </c>
@@ -5986,7 +6003,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>22</v>
       </c>
@@ -6000,7 +6017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>22</v>
       </c>
@@ -6014,7 +6031,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>22</v>
       </c>
@@ -6028,7 +6045,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>22</v>
       </c>
@@ -6042,7 +6059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>22</v>
       </c>
@@ -6056,7 +6073,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>22</v>
       </c>
@@ -6070,7 +6087,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>22</v>
       </c>
@@ -6084,7 +6101,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>23</v>
       </c>
@@ -6098,7 +6115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>23</v>
       </c>
@@ -6112,7 +6129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>23</v>
       </c>
@@ -6126,7 +6143,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>19</v>
       </c>
@@ -6140,7 +6157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>19</v>
       </c>
@@ -6154,7 +6171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>19</v>
       </c>
@@ -6168,7 +6185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>19</v>
       </c>
@@ -6182,7 +6199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>19</v>
       </c>
@@ -6196,7 +6213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>19</v>
       </c>
@@ -6210,7 +6227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>19</v>
       </c>
@@ -6224,7 +6241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>20</v>
       </c>
@@ -6238,7 +6255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>20</v>
       </c>
@@ -6252,7 +6269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>20</v>
       </c>
@@ -6266,7 +6283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>20</v>
       </c>
@@ -6280,7 +6297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>20</v>
       </c>
@@ -6294,7 +6311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" s="8">
         <v>20</v>
       </c>
@@ -6308,7 +6325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="8">
         <v>20</v>
       </c>
@@ -6322,7 +6339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>21</v>
       </c>
@@ -6336,7 +6353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>21</v>
       </c>
@@ -6350,7 +6367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>21</v>
       </c>
@@ -6364,7 +6381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>21</v>
       </c>
@@ -6378,7 +6395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>21</v>
       </c>
@@ -6392,7 +6409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>21</v>
       </c>
@@ -6406,7 +6423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>21</v>
       </c>
@@ -6420,7 +6437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>22</v>
       </c>
@@ -6434,7 +6451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>22</v>
       </c>
@@ -6448,7 +6465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>22</v>
       </c>
@@ -6462,7 +6479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>22</v>
       </c>
@@ -6476,7 +6493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>22</v>
       </c>
@@ -6490,7 +6507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>22</v>
       </c>
@@ -6504,7 +6521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>22</v>
       </c>
@@ -6518,7 +6535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>23</v>
       </c>
@@ -6532,7 +6549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>23</v>
       </c>
@@ -6546,7 +6563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>23</v>
       </c>
@@ -6560,7 +6577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>19</v>
       </c>
@@ -6574,7 +6591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>19</v>
       </c>
@@ -6588,7 +6605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>19</v>
       </c>
@@ -6602,7 +6619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>19</v>
       </c>
@@ -6616,7 +6633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>19</v>
       </c>
@@ -6630,7 +6647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>19</v>
       </c>
@@ -6644,7 +6661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>19</v>
       </c>
@@ -6658,7 +6675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>20</v>
       </c>
@@ -6672,7 +6689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>20</v>
       </c>
@@ -6686,7 +6703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>20</v>
       </c>
@@ -6700,7 +6717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>20</v>
       </c>
@@ -6714,7 +6731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>20</v>
       </c>
@@ -6728,7 +6745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="8">
         <v>20</v>
       </c>
@@ -6742,7 +6759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" s="8">
         <v>20</v>
       </c>
@@ -6756,7 +6773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>21</v>
       </c>
@@ -6770,7 +6787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>21</v>
       </c>
@@ -6784,7 +6801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>21</v>
       </c>
@@ -6798,7 +6815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>21</v>
       </c>
@@ -6812,7 +6829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>21</v>
       </c>
@@ -6826,7 +6843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>21</v>
       </c>
@@ -6840,7 +6857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>21</v>
       </c>
@@ -6854,7 +6871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>22</v>
       </c>
@@ -6868,7 +6885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>22</v>
       </c>
@@ -6882,7 +6899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>22</v>
       </c>
@@ -6896,7 +6913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>22</v>
       </c>
@@ -6910,7 +6927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>22</v>
       </c>
@@ -6924,7 +6941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>22</v>
       </c>
@@ -6938,7 +6955,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>22</v>
       </c>
@@ -6952,7 +6969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>23</v>
       </c>
@@ -6966,7 +6983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>23</v>
       </c>
@@ -6980,7 +6997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>23</v>
       </c>
@@ -6994,7 +7011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>19</v>
       </c>
@@ -7008,7 +7025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>19</v>
       </c>
@@ -7022,7 +7039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>19</v>
       </c>
@@ -7036,7 +7053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>19</v>
       </c>
@@ -7050,7 +7067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>19</v>
       </c>
@@ -7064,7 +7081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>19</v>
       </c>
@@ -7078,7 +7095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>19</v>
       </c>
@@ -7092,7 +7109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>20</v>
       </c>
@@ -7106,7 +7123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>20</v>
       </c>
@@ -7120,7 +7137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>20</v>
       </c>
@@ -7134,7 +7151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>20</v>
       </c>
@@ -7148,7 +7165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>20</v>
       </c>
@@ -7162,7 +7179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324" s="8">
         <v>20</v>
       </c>
@@ -7176,7 +7193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325" s="8">
         <v>20</v>
       </c>
@@ -7190,7 +7207,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>21</v>
       </c>
@@ -7204,7 +7221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>21</v>
       </c>
@@ -7218,7 +7235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>21</v>
       </c>
@@ -7232,7 +7249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>21</v>
       </c>
@@ -7246,7 +7263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>21</v>
       </c>
@@ -7260,7 +7277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>21</v>
       </c>
@@ -7274,7 +7291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>21</v>
       </c>
@@ -7288,7 +7305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>22</v>
       </c>
@@ -7302,7 +7319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>22</v>
       </c>
@@ -7316,7 +7333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>22</v>
       </c>
@@ -7330,7 +7347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>22</v>
       </c>
@@ -7344,7 +7361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>22</v>
       </c>
@@ -7358,7 +7375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>22</v>
       </c>
@@ -7372,7 +7389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>22</v>
       </c>
@@ -7386,7 +7403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>23</v>
       </c>
@@ -7400,7 +7417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>23</v>
       </c>
@@ -7414,7 +7431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>23</v>
       </c>
@@ -7428,7 +7445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>19</v>
       </c>
@@ -7442,7 +7459,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>19</v>
       </c>
@@ -7456,7 +7473,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>19</v>
       </c>
@@ -7470,7 +7487,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>19</v>
       </c>
@@ -7484,7 +7501,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>19</v>
       </c>
@@ -7498,7 +7515,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>19</v>
       </c>
@@ -7512,7 +7529,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>19</v>
       </c>
@@ -7526,7 +7543,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>20</v>
       </c>
@@ -7540,7 +7557,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>20</v>
       </c>
@@ -7554,7 +7571,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>20</v>
       </c>
@@ -7568,7 +7585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>20</v>
       </c>
@@ -7582,7 +7599,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>20</v>
       </c>
@@ -7596,7 +7613,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355" s="8">
         <v>20</v>
       </c>
@@ -7610,7 +7627,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" s="8">
         <v>20</v>
       </c>
@@ -7624,7 +7641,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>21</v>
       </c>
@@ -7638,7 +7655,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>21</v>
       </c>
@@ -7652,7 +7669,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>21</v>
       </c>
@@ -7666,7 +7683,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>21</v>
       </c>
@@ -7680,7 +7697,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>21</v>
       </c>
@@ -7694,7 +7711,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>21</v>
       </c>
@@ -7708,7 +7725,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>21</v>
       </c>
@@ -7722,7 +7739,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>22</v>
       </c>
@@ -7736,7 +7753,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>22</v>
       </c>
@@ -7750,7 +7767,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>22</v>
       </c>
@@ -7764,7 +7781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>22</v>
       </c>
@@ -7778,7 +7795,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
         <v>22</v>
       </c>
@@ -7792,7 +7809,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>22</v>
       </c>
@@ -7806,7 +7823,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>22</v>
       </c>
@@ -7820,7 +7837,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>23</v>
       </c>
@@ -7834,7 +7851,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>23</v>
       </c>
@@ -7848,7 +7865,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>23</v>
       </c>
@@ -7862,7 +7879,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>19</v>
       </c>
@@ -7876,7 +7893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>19</v>
       </c>
@@ -7890,7 +7907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>19</v>
       </c>
@@ -7904,7 +7921,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>19</v>
       </c>
@@ -7918,7 +7935,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>19</v>
       </c>
@@ -7932,7 +7949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>19</v>
       </c>
@@ -7946,7 +7963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>19</v>
       </c>
@@ -7960,7 +7977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>20</v>
       </c>
@@ -7974,7 +7991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>20</v>
       </c>
@@ -7988,7 +8005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>20</v>
       </c>
@@ -8002,7 +8019,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>20</v>
       </c>
@@ -8016,7 +8033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>20</v>
       </c>
@@ -8030,7 +8047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" s="8">
         <v>20</v>
       </c>
@@ -8044,7 +8061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A387" s="8">
         <v>20</v>
       </c>
@@ -8058,7 +8075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>21</v>
       </c>
@@ -8072,7 +8089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>21</v>
       </c>
@@ -8086,7 +8103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>21</v>
       </c>
@@ -8100,7 +8117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>21</v>
       </c>
@@ -8114,7 +8131,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
         <v>21</v>
       </c>
@@ -8128,7 +8145,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
         <v>21</v>
       </c>
@@ -8142,7 +8159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
         <v>21</v>
       </c>
@@ -8156,7 +8173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
         <v>22</v>
       </c>
@@ -8170,7 +8187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
         <v>22</v>
       </c>
@@ -8184,7 +8201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
         <v>22</v>
       </c>
@@ -8198,7 +8215,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
         <v>22</v>
       </c>
@@ -8212,7 +8229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A399" s="1">
         <v>22</v>
       </c>
@@ -8226,7 +8243,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
         <v>22</v>
       </c>
@@ -8240,7 +8257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
         <v>22</v>
       </c>
@@ -8254,7 +8271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
         <v>23</v>
       </c>
@@ -8268,7 +8285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
         <v>23</v>
       </c>
@@ -8282,7 +8299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" s="1">
         <v>23</v>
       </c>
@@ -8296,7 +8313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
         <v>19</v>
       </c>
@@ -8310,7 +8327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
         <v>19</v>
       </c>
@@ -8324,7 +8341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
         <v>19</v>
       </c>
@@ -8338,7 +8355,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
         <v>19</v>
       </c>
@@ -8352,7 +8369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
         <v>19</v>
       </c>
@@ -8366,7 +8383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" s="1">
         <v>19</v>
       </c>
@@ -8380,7 +8397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
         <v>19</v>
       </c>
@@ -8394,7 +8411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
         <v>20</v>
       </c>
@@ -8408,7 +8425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
         <v>20</v>
       </c>
@@ -8422,7 +8439,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
         <v>20</v>
       </c>
@@ -8436,7 +8453,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
         <v>20</v>
       </c>
@@ -8450,7 +8467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" s="1">
         <v>20</v>
       </c>
@@ -8464,7 +8481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A417" s="8">
         <v>20</v>
       </c>
@@ -8478,7 +8495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A418" s="8">
         <v>20</v>
       </c>
@@ -8492,7 +8509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
         <v>21</v>
       </c>
@@ -8506,7 +8523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A420" s="1">
         <v>21</v>
       </c>
@@ -8520,7 +8537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
         <v>21</v>
       </c>
@@ -8534,7 +8551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" s="1">
         <v>21</v>
       </c>
@@ -8548,7 +8565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
         <v>21</v>
       </c>
@@ -8562,7 +8579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
         <v>21</v>
       </c>
@@ -8576,7 +8593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" s="1">
         <v>21</v>
       </c>
@@ -8590,7 +8607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
         <v>22</v>
       </c>
@@ -8604,7 +8621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
         <v>22</v>
       </c>
@@ -8618,7 +8635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" s="1">
         <v>22</v>
       </c>
@@ -8632,7 +8649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
         <v>22</v>
       </c>
@@ -8646,7 +8663,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
         <v>22</v>
       </c>
@@ -8660,7 +8677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" s="1">
         <v>22</v>
       </c>
@@ -8674,7 +8691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A432" s="1">
         <v>22</v>
       </c>
@@ -8688,7 +8705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A433" s="1">
         <v>23</v>
       </c>
@@ -8702,7 +8719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
         <v>23</v>
       </c>
@@ -8716,7 +8733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
         <v>23</v>
       </c>
@@ -8730,7 +8747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
         <v>19</v>
       </c>
@@ -8744,7 +8761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" s="1">
         <v>19</v>
       </c>
@@ -8758,7 +8775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
         <v>19</v>
       </c>
@@ -8772,7 +8789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
         <v>19</v>
       </c>
@@ -8786,7 +8803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
         <v>19</v>
       </c>
@@ -8800,7 +8817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
         <v>19</v>
       </c>
@@ -8814,7 +8831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
         <v>19</v>
       </c>
@@ -8828,7 +8845,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
         <v>20</v>
       </c>
@@ -8842,7 +8859,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A444" s="1">
         <v>20</v>
       </c>
@@ -8856,7 +8873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
         <v>20</v>
       </c>
@@ -8870,7 +8887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" s="1">
         <v>20</v>
       </c>
@@ -8884,7 +8901,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A447" s="1">
         <v>20</v>
       </c>
@@ -8898,7 +8915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A448" s="8">
         <v>20</v>
       </c>
@@ -8912,7 +8929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" s="8">
         <v>20</v>
       </c>
@@ -8926,7 +8943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A450" s="1">
         <v>21</v>
       </c>
@@ -8940,7 +8957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
         <v>21</v>
       </c>
@@ -8954,7 +8971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452" s="1">
         <v>21</v>
       </c>
@@ -8968,7 +8985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A453" s="1">
         <v>21</v>
       </c>
@@ -8982,7 +8999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A454" s="1">
         <v>21</v>
       </c>
@@ -8996,7 +9013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
         <v>21</v>
       </c>
@@ -9010,7 +9027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A456" s="1">
         <v>21</v>
       </c>
@@ -9024,7 +9041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A457" s="1">
         <v>22</v>
       </c>
@@ -9038,7 +9055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458" s="1">
         <v>22</v>
       </c>
@@ -9052,7 +9069,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A459" s="1">
         <v>22</v>
       </c>
@@ -9066,7 +9083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A460" s="1">
         <v>22</v>
       </c>
@@ -9080,7 +9097,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461" s="1">
         <v>22</v>
       </c>
@@ -9094,7 +9111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A462" s="1">
         <v>22</v>
       </c>
@@ -9108,7 +9125,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
         <v>22</v>
       </c>
@@ -9122,7 +9139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" s="1">
         <v>23</v>
       </c>
@@ -9136,7 +9153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A465" s="1">
         <v>23</v>
       </c>
@@ -9150,7 +9167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A466" s="1">
         <v>23</v>
       </c>
@@ -9164,7 +9181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" s="1">
         <v>19</v>
       </c>
@@ -9178,7 +9195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A468" s="1">
         <v>19</v>
       </c>
@@ -9192,7 +9209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A469" s="1">
         <v>19</v>
       </c>
@@ -9206,7 +9223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470" s="1">
         <v>19</v>
       </c>
@@ -9220,7 +9237,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A471" s="1">
         <v>19</v>
       </c>
@@ -9234,7 +9251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A472" s="1">
         <v>19</v>
       </c>
@@ -9248,7 +9265,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" s="1">
         <v>19</v>
       </c>
@@ -9262,7 +9279,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A474" s="1">
         <v>20</v>
       </c>
@@ -9276,7 +9293,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A475" s="1">
         <v>20</v>
       </c>
@@ -9290,7 +9307,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476" s="1">
         <v>20</v>
       </c>
@@ -9304,7 +9321,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A477" s="1">
         <v>20</v>
       </c>
@@ -9318,7 +9335,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A478" s="1">
         <v>20</v>
       </c>
@@ -9332,7 +9349,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479" s="8">
         <v>20</v>
       </c>
@@ -9346,7 +9363,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A480" s="8">
         <v>20</v>
       </c>
@@ -9360,7 +9377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A481" s="1">
         <v>21</v>
       </c>
@@ -9374,7 +9391,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482" s="1">
         <v>21</v>
       </c>
@@ -9388,7 +9405,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A483" s="1">
         <v>21</v>
       </c>
@@ -9402,7 +9419,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A484" s="1">
         <v>21</v>
       </c>
@@ -9416,7 +9433,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485" s="1">
         <v>21</v>
       </c>
@@ -9430,7 +9447,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A486" s="1">
         <v>21</v>
       </c>
@@ -9444,7 +9461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A487" s="1">
         <v>21</v>
       </c>
@@ -9458,7 +9475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488" s="1">
         <v>22</v>
       </c>
@@ -9472,7 +9489,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A489" s="1">
         <v>22</v>
       </c>
@@ -9486,7 +9503,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
         <v>22</v>
       </c>
@@ -9500,7 +9517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" s="1">
         <v>22</v>
       </c>
@@ -9514,7 +9531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A492" s="1">
         <v>22</v>
       </c>
@@ -9528,7 +9545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A493" s="1">
         <v>22</v>
       </c>
@@ -9542,7 +9559,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494" s="1">
         <v>22</v>
       </c>
@@ -9556,7 +9573,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
         <v>23</v>
       </c>
@@ -9570,7 +9587,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A496" s="1">
         <v>23</v>
       </c>
@@ -9584,7 +9601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497" s="1">
         <v>23</v>
       </c>
@@ -9598,7 +9615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
         <v>19</v>
       </c>
@@ -9612,7 +9629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A499" s="1">
         <v>19</v>
       </c>
@@ -9626,7 +9643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
         <v>19</v>
       </c>
@@ -9640,7 +9657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A501" s="1">
         <v>19</v>
       </c>
@@ -9654,7 +9671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A502" s="1">
         <v>19</v>
       </c>
@@ -9668,7 +9685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503" s="1">
         <v>19</v>
       </c>
@@ -9682,7 +9699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A504" s="1">
         <v>19</v>
       </c>
@@ -9696,7 +9713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A505" s="1">
         <v>20</v>
       </c>
@@ -9710,7 +9727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" s="1">
         <v>20</v>
       </c>
@@ -9724,7 +9741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A507" s="1">
         <v>20</v>
       </c>
@@ -9738,7 +9755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A508" s="1">
         <v>20</v>
       </c>
@@ -9752,7 +9769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509" s="1">
         <v>20</v>
       </c>
@@ -9766,7 +9783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A510" s="8">
         <v>20</v>
       </c>
@@ -9780,7 +9797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A511" s="8">
         <v>20</v>
       </c>
@@ -9794,7 +9811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512" s="1">
         <v>21</v>
       </c>
@@ -9808,7 +9825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A513" s="1">
         <v>21</v>
       </c>
@@ -9822,7 +9839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A514" s="1">
         <v>21</v>
       </c>
@@ -9836,7 +9853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515" s="1">
         <v>21</v>
       </c>
@@ -9850,7 +9867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A516" s="1">
         <v>21</v>
       </c>
@@ -9864,7 +9881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A517" s="1">
         <v>21</v>
       </c>
@@ -9878,7 +9895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518" s="1">
         <v>21</v>
       </c>
@@ -9892,7 +9909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A519" s="1">
         <v>22</v>
       </c>
@@ -9906,7 +9923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A520" s="1">
         <v>22</v>
       </c>
@@ -9920,7 +9937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521" s="1">
         <v>22</v>
       </c>
@@ -9934,7 +9951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A522" s="1">
         <v>22</v>
       </c>
@@ -9948,7 +9965,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A523" s="1">
         <v>22</v>
       </c>
@@ -9962,7 +9979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524" s="1">
         <v>22</v>
       </c>
@@ -9976,7 +9993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A525" s="1">
         <v>22</v>
       </c>
@@ -9990,7 +10007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A526" s="1">
         <v>23</v>
       </c>
@@ -10004,7 +10021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527" s="1">
         <v>23</v>
       </c>
@@ -10018,7 +10035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A528" s="1">
         <v>23</v>
       </c>
@@ -10032,7 +10049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A529" s="1">
         <v>19</v>
       </c>
@@ -10046,7 +10063,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A530" s="1">
         <v>19</v>
       </c>
@@ -10060,7 +10077,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A531" s="1">
         <v>19</v>
       </c>
@@ -10074,7 +10091,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A532" s="1">
         <v>19</v>
       </c>
@@ -10088,7 +10105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A533" s="1">
         <v>19</v>
       </c>
@@ -10102,7 +10119,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A534" s="1">
         <v>19</v>
       </c>
@@ -10116,7 +10133,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A535" s="1">
         <v>19</v>
       </c>
@@ -10130,7 +10147,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A536" s="1">
         <v>20</v>
       </c>
@@ -10144,7 +10161,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A537" s="1">
         <v>20</v>
       </c>
@@ -10158,7 +10175,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A538" s="1">
         <v>20</v>
       </c>
@@ -10172,7 +10189,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A539" s="1">
         <v>20</v>
       </c>
@@ -10186,7 +10203,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A540" s="1">
         <v>20</v>
       </c>
@@ -10200,7 +10217,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A541" s="8">
         <v>20</v>
       </c>
@@ -10214,7 +10231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A542" s="8">
         <v>20</v>
       </c>
@@ -10228,7 +10245,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A543" s="1">
         <v>21</v>
       </c>
@@ -10242,7 +10259,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A544" s="1">
         <v>21</v>
       </c>
@@ -10256,7 +10273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A545" s="1">
         <v>21</v>
       </c>
@@ -10270,7 +10287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A546" s="1">
         <v>21</v>
       </c>
@@ -10284,7 +10301,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A547" s="1">
         <v>21</v>
       </c>
@@ -10298,7 +10315,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A548" s="1">
         <v>21</v>
       </c>
@@ -10312,7 +10329,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A549" s="1">
         <v>21</v>
       </c>
@@ -10326,7 +10343,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A550" s="1">
         <v>22</v>
       </c>
@@ -10340,7 +10357,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551" s="1">
         <v>22</v>
       </c>
@@ -10354,7 +10371,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A552" s="1">
         <v>22</v>
       </c>
@@ -10368,7 +10385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A553" s="1">
         <v>22</v>
       </c>
@@ -10382,7 +10399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A554" s="1">
         <v>22</v>
       </c>
@@ -10396,7 +10413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A555" s="1">
         <v>22</v>
       </c>
@@ -10410,7 +10427,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A556" s="1">
         <v>22</v>
       </c>
@@ -10424,7 +10441,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A557" s="1">
         <v>23</v>
       </c>
@@ -10438,7 +10455,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A558" s="1">
         <v>23</v>
       </c>
@@ -10452,7 +10469,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A559" s="1">
         <v>23</v>
       </c>
@@ -10466,7 +10483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A560" s="1">
         <v>19</v>
       </c>
@@ -10480,7 +10497,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A561" s="1">
         <v>19</v>
       </c>
@@ -10494,7 +10511,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A562" s="1">
         <v>19</v>
       </c>
@@ -10508,7 +10525,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A563" s="1">
         <v>19</v>
       </c>
@@ -10522,7 +10539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A564" s="1">
         <v>19</v>
       </c>
@@ -10536,7 +10553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A565" s="1">
         <v>19</v>
       </c>
@@ -10550,7 +10567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A566" s="1">
         <v>19</v>
       </c>
@@ -10564,7 +10581,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A567" s="1">
         <v>20</v>
       </c>
@@ -10578,7 +10595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A568" s="1">
         <v>20</v>
       </c>
@@ -10592,7 +10609,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A569" s="1">
         <v>20</v>
       </c>
@@ -10606,7 +10623,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A570" s="1">
         <v>20</v>
       </c>
@@ -10620,7 +10637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A571" s="1">
         <v>20</v>
       </c>
@@ -10634,7 +10651,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A572" s="8">
         <v>20</v>
       </c>
@@ -10648,7 +10665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A573" s="8">
         <v>20</v>
       </c>
@@ -10662,7 +10679,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A574" s="1">
         <v>21</v>
       </c>
@@ -10676,7 +10693,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A575" s="1">
         <v>21</v>
       </c>
@@ -10690,7 +10707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A576" s="1">
         <v>21</v>
       </c>
@@ -10704,7 +10721,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A577" s="1">
         <v>21</v>
       </c>
@@ -10718,7 +10735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A578" s="1">
         <v>21</v>
       </c>
@@ -10732,7 +10749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A579" s="1">
         <v>21</v>
       </c>
@@ -10746,7 +10763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A580" s="1">
         <v>21</v>
       </c>
@@ -10760,7 +10777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A581" s="1">
         <v>22</v>
       </c>
@@ -10774,7 +10791,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A582" s="1">
         <v>22</v>
       </c>
@@ -10788,7 +10805,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A583" s="1">
         <v>22</v>
       </c>
@@ -10802,7 +10819,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A584" s="1">
         <v>22</v>
       </c>
@@ -10816,7 +10833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A585" s="1">
         <v>22</v>
       </c>
@@ -10830,7 +10847,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A586" s="1">
         <v>22</v>
       </c>
@@ -10844,7 +10861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A587" s="1">
         <v>22</v>
       </c>
@@ -10858,7 +10875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A588" s="1">
         <v>23</v>
       </c>
@@ -10872,7 +10889,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A589" s="1">
         <v>23</v>
       </c>
@@ -10886,7 +10903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A590" s="1">
         <v>23</v>
       </c>
@@ -10900,7 +10917,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A591" s="1">
         <v>19</v>
       </c>
@@ -10914,7 +10931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A592" s="1">
         <v>19</v>
       </c>
@@ -10928,7 +10945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A593" s="1">
         <v>19</v>
       </c>
@@ -10942,7 +10959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A594" s="1">
         <v>19</v>
       </c>
@@ -10956,7 +10973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A595" s="1">
         <v>19</v>
       </c>
@@ -10970,7 +10987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A596" s="1">
         <v>19</v>
       </c>
@@ -10984,7 +11001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A597" s="1">
         <v>19</v>
       </c>
@@ -10998,7 +11015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A598" s="1">
         <v>20</v>
       </c>
@@ -11012,7 +11029,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A599" s="1">
         <v>20</v>
       </c>
@@ -11026,7 +11043,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A600" s="1">
         <v>20</v>
       </c>
@@ -11040,7 +11057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A601" s="1">
         <v>20</v>
       </c>
@@ -11054,7 +11071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A602" s="1">
         <v>20</v>
       </c>
@@ -11068,7 +11085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A603" s="8">
         <v>20</v>
       </c>
@@ -11082,7 +11099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A604" s="8">
         <v>20</v>
       </c>
@@ -11096,7 +11113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A605" s="1">
         <v>21</v>
       </c>
@@ -11110,7 +11127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A606" s="1">
         <v>21</v>
       </c>
@@ -11124,7 +11141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A607" s="1">
         <v>21</v>
       </c>
@@ -11138,7 +11155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A608" s="1">
         <v>21</v>
       </c>
@@ -11152,7 +11169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A609" s="1">
         <v>21</v>
       </c>
@@ -11166,7 +11183,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A610" s="1">
         <v>21</v>
       </c>
@@ -11180,7 +11197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A611" s="1">
         <v>21</v>
       </c>
@@ -11194,7 +11211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A612" s="1">
         <v>22</v>
       </c>
@@ -11208,7 +11225,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A613" s="1">
         <v>22</v>
       </c>
@@ -11222,7 +11239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A614" s="1">
         <v>22</v>
       </c>
@@ -11236,7 +11253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A615" s="1">
         <v>22</v>
       </c>
@@ -11250,7 +11267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A616" s="1">
         <v>22</v>
       </c>
@@ -11264,7 +11281,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A617" s="1">
         <v>22</v>
       </c>
@@ -11278,7 +11295,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A618" s="1">
         <v>22</v>
       </c>
@@ -11292,7 +11309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A619" s="1">
         <v>23</v>
       </c>
@@ -11306,7 +11323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A620" s="1">
         <v>23</v>
       </c>
@@ -11320,7 +11337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A621" s="1">
         <v>23</v>
       </c>
@@ -11334,7 +11351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A622" s="1">
         <v>19</v>
       </c>
@@ -11348,7 +11365,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A623" s="1">
         <v>19</v>
       </c>
@@ -11362,7 +11379,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A624" s="1">
         <v>19</v>
       </c>
@@ -11376,7 +11393,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A625" s="1">
         <v>19</v>
       </c>
@@ -11390,7 +11407,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A626" s="1">
         <v>19</v>
       </c>
@@ -11404,7 +11421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A627" s="1">
         <v>19</v>
       </c>
@@ -11418,7 +11435,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A628" s="1">
         <v>19</v>
       </c>
@@ -11432,7 +11449,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A629" s="1">
         <v>20</v>
       </c>
@@ -11446,7 +11463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A630" s="1">
         <v>20</v>
       </c>
@@ -11460,7 +11477,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A631" s="1">
         <v>20</v>
       </c>
@@ -11474,7 +11491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A632" s="1">
         <v>20</v>
       </c>
@@ -11488,7 +11505,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A633" s="1">
         <v>20</v>
       </c>
@@ -11502,7 +11519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A634" s="8">
         <v>20</v>
       </c>
@@ -11516,7 +11533,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A635" s="8">
         <v>20</v>
       </c>
@@ -11530,7 +11547,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A636" s="1">
         <v>21</v>
       </c>
@@ -11544,7 +11561,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A637" s="1">
         <v>21</v>
       </c>
@@ -11558,7 +11575,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A638" s="1">
         <v>21</v>
       </c>
@@ -11572,7 +11589,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A639" s="1">
         <v>21</v>
       </c>
@@ -11586,7 +11603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A640" s="1">
         <v>21</v>
       </c>
@@ -11600,7 +11617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A641" s="1">
         <v>21</v>
       </c>
@@ -11614,7 +11631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A642" s="1">
         <v>21</v>
       </c>
@@ -11628,7 +11645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A643" s="1">
         <v>22</v>
       </c>
@@ -11642,7 +11659,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A644" s="1">
         <v>22</v>
       </c>
@@ -11656,7 +11673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A645" s="1">
         <v>22</v>
       </c>
@@ -11670,7 +11687,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A646" s="1">
         <v>22</v>
       </c>
@@ -11684,7 +11701,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A647" s="1">
         <v>22</v>
       </c>
@@ -11698,7 +11715,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A648" s="1">
         <v>22</v>
       </c>
@@ -11712,7 +11729,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A649" s="1">
         <v>22</v>
       </c>
@@ -11726,7 +11743,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A650" s="1">
         <v>23</v>
       </c>
@@ -11740,7 +11757,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A651" s="1">
         <v>23</v>
       </c>
@@ -11754,7 +11771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A652" s="1">
         <v>23</v>
       </c>
@@ -11768,7 +11785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A653" s="1">
         <v>19</v>
       </c>
@@ -11782,7 +11799,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A654" s="1">
         <v>19</v>
       </c>
@@ -11796,7 +11813,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A655" s="1">
         <v>19</v>
       </c>
@@ -11810,7 +11827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A656" s="1">
         <v>19</v>
       </c>
@@ -11824,7 +11841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A657" s="1">
         <v>19</v>
       </c>
@@ -11838,7 +11855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A658" s="1">
         <v>19</v>
       </c>
@@ -11852,7 +11869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A659" s="1">
         <v>19</v>
       </c>
@@ -11866,7 +11883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A660" s="1">
         <v>20</v>
       </c>
@@ -11880,7 +11897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A661" s="1">
         <v>20</v>
       </c>
@@ -11894,7 +11911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A662" s="1">
         <v>20</v>
       </c>
@@ -11908,7 +11925,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A663" s="1">
         <v>20</v>
       </c>
@@ -11922,7 +11939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A664" s="1">
         <v>20</v>
       </c>
@@ -11936,7 +11953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A665" s="8">
         <v>20</v>
       </c>
@@ -11950,7 +11967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A666" s="8">
         <v>20</v>
       </c>
@@ -11964,7 +11981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A667" s="1">
         <v>21</v>
       </c>
@@ -11978,7 +11995,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A668" s="1">
         <v>21</v>
       </c>
@@ -11992,7 +12009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A669" s="1">
         <v>21</v>
       </c>
@@ -12006,7 +12023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A670" s="1">
         <v>21</v>
       </c>
@@ -12020,7 +12037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A671" s="1">
         <v>21</v>
       </c>
@@ -12034,7 +12051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A672" s="1">
         <v>21</v>
       </c>
@@ -12048,7 +12065,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A673" s="1">
         <v>21</v>
       </c>
@@ -12062,7 +12079,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A674" s="1">
         <v>22</v>
       </c>
@@ -12076,7 +12093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A675" s="1">
         <v>22</v>
       </c>
@@ -12090,7 +12107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A676" s="1">
         <v>22</v>
       </c>
@@ -12104,7 +12121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A677" s="1">
         <v>22</v>
       </c>
@@ -12118,7 +12135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A678" s="1">
         <v>22</v>
       </c>
@@ -12132,7 +12149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A679" s="1">
         <v>22</v>
       </c>
@@ -12146,7 +12163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A680" s="1">
         <v>22</v>
       </c>
@@ -12160,7 +12177,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A681" s="1">
         <v>23</v>
       </c>
@@ -12174,7 +12191,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A682" s="1">
         <v>23</v>
       </c>
@@ -12188,7 +12205,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A683" s="1">
         <v>23</v>
       </c>
@@ -12202,7 +12219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A684" s="1">
         <v>19</v>
       </c>
@@ -12216,7 +12233,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A685" s="1">
         <v>19</v>
       </c>
@@ -12230,7 +12247,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A686" s="1">
         <v>19</v>
       </c>
@@ -12244,7 +12261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A687" s="1">
         <v>19</v>
       </c>
@@ -12258,7 +12275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A688" s="1">
         <v>19</v>
       </c>
@@ -12272,7 +12289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A689" s="1">
         <v>19</v>
       </c>
@@ -12286,7 +12303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A690" s="1">
         <v>19</v>
       </c>
@@ -12300,7 +12317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A691" s="1">
         <v>20</v>
       </c>
@@ -12314,7 +12331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A692" s="1">
         <v>20</v>
       </c>
@@ -12328,7 +12345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A693" s="1">
         <v>20</v>
       </c>
@@ -12342,7 +12359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A694" s="1">
         <v>20</v>
       </c>
@@ -12356,7 +12373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A695" s="1">
         <v>20</v>
       </c>
@@ -12370,7 +12387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A696" s="8">
         <v>20</v>
       </c>
@@ -12384,7 +12401,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A697" s="8">
         <v>20</v>
       </c>
@@ -12398,7 +12415,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A698" s="1">
         <v>21</v>
       </c>
@@ -12412,7 +12429,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A699" s="1">
         <v>21</v>
       </c>
@@ -12426,7 +12443,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A700" s="1">
         <v>21</v>
       </c>
@@ -12440,7 +12457,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A701" s="1">
         <v>21</v>
       </c>
@@ -12454,7 +12471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A702" s="1">
         <v>21</v>
       </c>
@@ -12468,7 +12485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A703" s="1">
         <v>21</v>
       </c>
@@ -12482,7 +12499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A704" s="1">
         <v>21</v>
       </c>
@@ -12496,7 +12513,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A705" s="1">
         <v>22</v>
       </c>
@@ -12510,7 +12527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A706" s="1">
         <v>22</v>
       </c>
@@ -12524,7 +12541,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A707" s="1">
         <v>22</v>
       </c>
@@ -12538,7 +12555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A708" s="1">
         <v>22</v>
       </c>
@@ -12552,7 +12569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A709" s="1">
         <v>22</v>
       </c>
@@ -12566,7 +12583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A710" s="1">
         <v>22</v>
       </c>
@@ -12580,7 +12597,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A711" s="1">
         <v>22</v>
       </c>
@@ -12594,7 +12611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A712" s="1">
         <v>23</v>
       </c>
@@ -12608,7 +12625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A713" s="1">
         <v>23</v>
       </c>
@@ -12622,7 +12639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A714" s="1">
         <v>23</v>
       </c>
@@ -12636,7 +12653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A715" s="1">
         <v>19</v>
       </c>
@@ -12650,7 +12667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A716" s="1">
         <v>19</v>
       </c>
@@ -12664,7 +12681,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A717" s="1">
         <v>19</v>
       </c>
@@ -12678,7 +12695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A718" s="1">
         <v>19</v>
       </c>
@@ -12692,7 +12709,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A719" s="1">
         <v>19</v>
       </c>
@@ -12706,7 +12723,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A720" s="1">
         <v>19</v>
       </c>
@@ -12720,7 +12737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A721" s="1">
         <v>19</v>
       </c>
@@ -12734,7 +12751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A722" s="1">
         <v>20</v>
       </c>
@@ -12748,7 +12765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A723" s="1">
         <v>20</v>
       </c>
@@ -12762,7 +12779,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A724" s="1">
         <v>20</v>
       </c>
@@ -12776,7 +12793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A725" s="1">
         <v>20</v>
       </c>
@@ -12790,7 +12807,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A726" s="1">
         <v>20</v>
       </c>
@@ -12804,7 +12821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A727" s="8">
         <v>20</v>
       </c>
@@ -12818,7 +12835,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A728" s="8">
         <v>20</v>
       </c>
@@ -12832,7 +12849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A729" s="1">
         <v>21</v>
       </c>
@@ -12846,7 +12863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A730" s="1">
         <v>21</v>
       </c>
@@ -12860,7 +12877,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A731" s="1">
         <v>21</v>
       </c>
@@ -12874,7 +12891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A732" s="1">
         <v>21</v>
       </c>
@@ -12888,7 +12905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A733" s="1">
         <v>21</v>
       </c>
@@ -12902,7 +12919,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A734" s="1">
         <v>21</v>
       </c>
@@ -12916,7 +12933,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A735" s="1">
         <v>21</v>
       </c>
@@ -12930,7 +12947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A736" s="1">
         <v>22</v>
       </c>
@@ -12944,7 +12961,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A737" s="1">
         <v>22</v>
       </c>
@@ -12958,7 +12975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A738" s="1">
         <v>22</v>
       </c>
@@ -12972,7 +12989,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A739" s="1">
         <v>22</v>
       </c>
@@ -12986,7 +13003,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A740" s="1">
         <v>22</v>
       </c>
@@ -13000,7 +13017,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A741" s="1">
         <v>22</v>
       </c>
@@ -13014,7 +13031,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A742" s="1">
         <v>22</v>
       </c>
@@ -13028,7 +13045,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A743" s="1">
         <v>23</v>
       </c>
@@ -13042,7 +13059,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A744" s="1">
         <v>23</v>
       </c>
@@ -13056,7 +13073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A745" s="1">
         <v>23</v>
       </c>
@@ -13070,7 +13087,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A746" s="1">
         <v>19</v>
       </c>
@@ -13084,7 +13101,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A747" s="1">
         <v>19</v>
       </c>
@@ -13098,7 +13115,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A748" s="1">
         <v>19</v>
       </c>
@@ -13112,7 +13129,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A749" s="1">
         <v>19</v>
       </c>
@@ -13126,7 +13143,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A750" s="1">
         <v>19</v>
       </c>
@@ -13140,7 +13157,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A751" s="1">
         <v>19</v>
       </c>
@@ -13154,7 +13171,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A752" s="1">
         <v>19</v>
       </c>
@@ -13168,7 +13185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A753" s="1">
         <v>20</v>
       </c>
@@ -13182,7 +13199,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A754" s="1">
         <v>20</v>
       </c>
@@ -13196,7 +13213,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A755" s="1">
         <v>20</v>
       </c>
@@ -13210,7 +13227,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A756" s="1">
         <v>20</v>
       </c>
@@ -13224,7 +13241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A757" s="1">
         <v>20</v>
       </c>
@@ -13238,7 +13255,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A758" s="8">
         <v>20</v>
       </c>
@@ -13252,7 +13269,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A759" s="8">
         <v>20</v>
       </c>
@@ -13266,7 +13283,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A760" s="1">
         <v>21</v>
       </c>
@@ -13280,7 +13297,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A761" s="1">
         <v>21</v>
       </c>
@@ -13294,7 +13311,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A762" s="1">
         <v>21</v>
       </c>
@@ -13308,7 +13325,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A763" s="1">
         <v>21</v>
       </c>
@@ -13322,7 +13339,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A764" s="1">
         <v>21</v>
       </c>
@@ -13336,7 +13353,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A765" s="1">
         <v>21</v>
       </c>
@@ -13350,7 +13367,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A766" s="1">
         <v>21</v>
       </c>
@@ -13364,7 +13381,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A767" s="1">
         <v>22</v>
       </c>
@@ -13378,7 +13395,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A768" s="1">
         <v>22</v>
       </c>
@@ -13392,7 +13409,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A769" s="1">
         <v>22</v>
       </c>
@@ -13406,7 +13423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A770" s="1">
         <v>22</v>
       </c>
@@ -13420,7 +13437,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A771" s="1">
         <v>22</v>
       </c>
@@ -13434,7 +13451,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A772" s="1">
         <v>22</v>
       </c>
@@ -13448,7 +13465,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A773" s="1">
         <v>22</v>
       </c>
@@ -13462,7 +13479,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A774" s="1">
         <v>23</v>
       </c>
@@ -13476,7 +13493,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A775" s="1">
         <v>23</v>
       </c>
@@ -13490,7 +13507,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A776" s="1">
         <v>23</v>
       </c>
@@ -13504,7 +13521,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A777" s="1">
         <v>19</v>
       </c>
@@ -13518,7 +13535,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A778" s="1">
         <v>19</v>
       </c>
@@ -13532,7 +13549,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A779" s="1">
         <v>19</v>
       </c>
@@ -13546,7 +13563,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A780" s="1">
         <v>19</v>
       </c>
@@ -13560,7 +13577,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A781" s="1">
         <v>19</v>
       </c>
@@ -13574,7 +13591,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A782" s="1">
         <v>19</v>
       </c>
@@ -13588,7 +13605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A783" s="1">
         <v>19</v>
       </c>
@@ -13602,7 +13619,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A784" s="1">
         <v>20</v>
       </c>
@@ -13616,7 +13633,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A785" s="1">
         <v>20</v>
       </c>
@@ -13630,7 +13647,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A786" s="1">
         <v>20</v>
       </c>
@@ -13644,7 +13661,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A787" s="1">
         <v>20</v>
       </c>
@@ -13658,7 +13675,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A788" s="1">
         <v>20</v>
       </c>
@@ -13672,7 +13689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A789" s="8">
         <v>20</v>
       </c>
@@ -13686,7 +13703,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A790" s="8">
         <v>20</v>
       </c>
@@ -13700,7 +13717,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A791" s="1">
         <v>21</v>
       </c>
@@ -13714,7 +13731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A792" s="1">
         <v>21</v>
       </c>
@@ -13728,7 +13745,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A793" s="1">
         <v>21</v>
       </c>
@@ -13742,7 +13759,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A794" s="1">
         <v>21</v>
       </c>
@@ -13756,7 +13773,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A795" s="1">
         <v>21</v>
       </c>
@@ -13770,7 +13787,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A796" s="1">
         <v>21</v>
       </c>
@@ -13784,7 +13801,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A797" s="1">
         <v>21</v>
       </c>
@@ -13798,7 +13815,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A798" s="1">
         <v>22</v>
       </c>
@@ -13812,7 +13829,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A799" s="1">
         <v>22</v>
       </c>
@@ -13826,7 +13843,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A800" s="1">
         <v>22</v>
       </c>
@@ -13840,7 +13857,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A801" s="1">
         <v>22</v>
       </c>
@@ -13854,7 +13871,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A802" s="1">
         <v>22</v>
       </c>
@@ -13868,7 +13885,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A803" s="1">
         <v>22</v>
       </c>
@@ -13882,7 +13899,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A804" s="1">
         <v>22</v>
       </c>
@@ -13896,7 +13913,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A805" s="1">
         <v>23</v>
       </c>
@@ -13910,7 +13927,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A806" s="1">
         <v>23</v>
       </c>
@@ -13924,7 +13941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A807" s="1">
         <v>23</v>
       </c>
@@ -13946,243 +13963,301 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEACD20-FC7E-4003-B7A2-4049C7F926A9}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="38.140625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="38.1796875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="83.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.36328125" customWidth="1"/>
+    <col min="6" max="6" width="38.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>4</v>
       </c>
